--- a/May prediction calculations.xlsx
+++ b/May prediction calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="May Predictions" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>request_date</t>
   </si>
@@ -79,19 +79,10 @@
     <t>Requests total</t>
   </si>
   <si>
-    <t>requests per day:</t>
-  </si>
-  <si>
     <t>Count of loggedTime</t>
   </si>
   <si>
-    <t>Probability to get more than</t>
-  </si>
-  <si>
     <t>Poisson:</t>
-  </si>
-  <si>
-    <t>Adjusted for 31 days</t>
   </si>
   <si>
     <t>April raw data</t>
@@ -103,13 +94,25 @@
     <t>95% Confidence Interval for May</t>
   </si>
   <si>
-    <t>Adjusted for 5% growth</t>
+    <t>May Raw Data</t>
   </si>
   <si>
-    <t>95% confidence interval April</t>
+    <t>requests on given day:</t>
   </si>
   <si>
-    <t>May Raw Data</t>
+    <t>Adjusted for 8% growth</t>
+  </si>
+  <si>
+    <t>95% Confidence Interval April</t>
+  </si>
+  <si>
+    <t>April Daily Numbers</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>Probability to get</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -218,6 +221,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -232,33 +253,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,7 +1394,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E2:G33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1534,7 +1557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:G35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1999,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N103"/>
+  <dimension ref="B1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,19 +2035,24 @@
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>43191</v>
       </c>
@@ -2063,12 +2091,12 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <f>AVERAGE(F3:F32)</f>
         <v>45.470000000000006</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43191</v>
       </c>
@@ -2087,12 +2115,12 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <f>_xlfn.STDEV.P(F3:F32)</f>
         <v>17.455928314854336</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>43191</v>
       </c>
@@ -2111,11 +2139,11 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>3.36</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>43191</v>
       </c>
@@ -2132,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>43191</v>
       </c>
@@ -2152,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>43192</v>
       </c>
@@ -2171,12 +2199,12 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <f>30*K3</f>
         <v>1364.1000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>43192</v>
       </c>
@@ -2193,14 +2221,14 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="8">
-        <f>SQRT(K4^2/SQRT(30))</f>
-        <v>7.4586913535213686</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K9" s="6">
+        <f>K4/SQRT(30)</f>
+        <v>3.1870019000796206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>43192</v>
       </c>
@@ -2219,11 +2247,11 @@
       <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>43192</v>
       </c>
@@ -2240,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>43193</v>
       </c>
@@ -2257,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>43193</v>
       </c>
@@ -2279,12 +2307,12 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <f>1-_xlfn.NORM.DIST(1400,K8,K9,TRUE)</f>
-        <v>7.4274888117731308E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>43193</v>
       </c>
@@ -2303,18 +2331,15 @@
       <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <f>_xlfn.NORM.DIST(1400,K8,K9,TRUE)</f>
-        <v>0.99999925725111882</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>43194</v>
       </c>
@@ -2330,26 +2355,22 @@
       <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="17">
         <f>_xlfn.NORM.INV(0.975,K8,K9)</f>
-        <v>1378.7187664247024</v>
-      </c>
-      <c r="L15" s="9">
-        <f>K15*31/30</f>
-        <v>1424.6760586388591</v>
-      </c>
-      <c r="M15" s="15">
-        <f>L15*1.05</f>
-        <v>1495.9098615708021</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1370.3464089428169</v>
+      </c>
+      <c r="L15" s="19">
+        <f>K15*1.08</f>
+        <v>1479.9741216582424</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>43194</v>
       </c>
@@ -2365,20 +2386,16 @@
       <c r="G16" s="4">
         <v>3</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="14">
+      <c r="J16" s="12"/>
+      <c r="K16" s="18">
         <f>_xlfn.NORM.INV(0.025,K8,K9)</f>
-        <v>1349.4812335752979</v>
-      </c>
-      <c r="L16" s="9">
-        <f>K16*31/30</f>
-        <v>1394.463941361141</v>
-      </c>
-      <c r="M16" s="17">
-        <f>L16*1.05</f>
-        <v>1464.1871384291981</v>
-      </c>
-      <c r="N16" s="18"/>
+        <v>1357.8535910571834</v>
+      </c>
+      <c r="L16" s="20">
+        <f>K16*1.08</f>
+        <v>1466.4818783417581</v>
+      </c>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -2414,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -2434,15 +2451,15 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="9">
+        <v>27</v>
+      </c>
+      <c r="K19" s="7">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="19">
+        <v>22</v>
+      </c>
+      <c r="M19" s="16">
         <f>1-_xlfn.POISSON.DIST(K19,K5,TRUE)</f>
         <v>5.503279576906106E-2</v>
       </c>
@@ -3246,10 +3263,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="J15:J16"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -3261,7 +3279,7 @@
   <dimension ref="B1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,10 +3291,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10"/>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3297,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -3687,7 +3705,7 @@
       <c r="E26" s="3">
         <v>43243</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="9">
         <v>6</v>
       </c>
       <c r="G26" s="4">
@@ -3843,7 +3861,7 @@
       <c r="F35" s="4">
         <v>111</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="8">
         <v>1458.8999999999992</v>
       </c>
     </row>
